--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.096574</v>
+        <v>2.979488</v>
       </c>
       <c r="H2">
-        <v>6.289722000000001</v>
+        <v>8.938464</v>
       </c>
       <c r="I2">
-        <v>0.004316650849965926</v>
+        <v>0.01229331913219231</v>
       </c>
       <c r="J2">
-        <v>0.0043243034519904</v>
+        <v>0.01233795916068688</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N2">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O2">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P2">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q2">
-        <v>0.04486598474200001</v>
+        <v>0.06746851943466667</v>
       </c>
       <c r="R2">
-        <v>0.4037938626780001</v>
+        <v>0.6072166749119999</v>
       </c>
       <c r="S2">
-        <v>0.0008166121066981057</v>
+        <v>0.00103937478435468</v>
       </c>
       <c r="T2">
-        <v>0.0008180598048507088</v>
+        <v>0.001043149006718161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.096574</v>
+        <v>2.979488</v>
       </c>
       <c r="H3">
-        <v>6.289722000000001</v>
+        <v>8.938464</v>
       </c>
       <c r="I3">
-        <v>0.004316650849965926</v>
+        <v>0.01229331913219231</v>
       </c>
       <c r="J3">
-        <v>0.0043243034519904</v>
+        <v>0.01233795916068688</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N3">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O3">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P3">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q3">
-        <v>0.1922977672800001</v>
+        <v>0.7305227857919999</v>
       </c>
       <c r="R3">
-        <v>1.73067990552</v>
+        <v>6.574705072127999</v>
       </c>
       <c r="S3">
-        <v>0.00350003874326782</v>
+        <v>0.01125394434783763</v>
       </c>
       <c r="T3">
-        <v>0.003506243647139691</v>
+        <v>0.01129481015396872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,43 +667,43 @@
         <v>14.18535633333333</v>
       </c>
       <c r="H4">
-        <v>42.556069</v>
+        <v>42.55606899999999</v>
       </c>
       <c r="I4">
-        <v>0.02920632921773944</v>
+        <v>0.05852855000910628</v>
       </c>
       <c r="J4">
-        <v>0.02925810649180387</v>
+        <v>0.05874108139400382</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N4">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O4">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P4">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q4">
-        <v>0.3035618970812222</v>
+        <v>0.3212179372641111</v>
       </c>
       <c r="R4">
-        <v>2.732057073731</v>
+        <v>2.890961435376999</v>
       </c>
       <c r="S4">
-        <v>0.005525172838939454</v>
+        <v>0.004948468220027277</v>
       </c>
       <c r="T4">
-        <v>0.005534967920895914</v>
+        <v>0.004966437310390189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,13 +729,13 @@
         <v>14.18535633333333</v>
       </c>
       <c r="H5">
-        <v>42.556069</v>
+        <v>42.55606899999999</v>
       </c>
       <c r="I5">
-        <v>0.02920632921773944</v>
+        <v>0.05852855000910628</v>
       </c>
       <c r="J5">
-        <v>0.02925810649180387</v>
+        <v>0.05874108139400382</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N5">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O5">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P5">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q5">
-        <v>1.301080882893333</v>
+        <v>3.478022407231999</v>
       </c>
       <c r="R5">
-        <v>11.70972794604</v>
+        <v>31.302201665088</v>
       </c>
       <c r="S5">
-        <v>0.02368115637879999</v>
+        <v>0.053580081789079</v>
       </c>
       <c r="T5">
-        <v>0.02372313857090795</v>
+        <v>0.05377464408361363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>119.7385153333333</v>
+        <v>109.4796983333333</v>
       </c>
       <c r="H6">
-        <v>359.215546</v>
+        <v>328.439095</v>
       </c>
       <c r="I6">
-        <v>0.2465304654103749</v>
+        <v>0.4517114585149561</v>
       </c>
       <c r="J6">
-        <v>0.2469675170979601</v>
+        <v>0.4533517325664633</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N6">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O6">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P6">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q6">
-        <v>2.562364315294889</v>
+        <v>2.479094782292778</v>
       </c>
       <c r="R6">
-        <v>23.061278837654</v>
+        <v>22.311853040635</v>
       </c>
       <c r="S6">
-        <v>0.04663795375658419</v>
+        <v>0.03819127240869028</v>
       </c>
       <c r="T6">
-        <v>0.04672063398988075</v>
+        <v>0.03832995419757375</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>119.7385153333333</v>
+        <v>109.4796983333333</v>
       </c>
       <c r="H7">
-        <v>359.215546</v>
+        <v>328.439095</v>
       </c>
       <c r="I7">
-        <v>0.2465304654103749</v>
+        <v>0.4517114585149561</v>
       </c>
       <c r="J7">
-        <v>0.2469675170979601</v>
+        <v>0.4533517325664633</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N7">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O7">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P7">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q7">
-        <v>10.98241662637333</v>
+        <v>26.84267035616</v>
       </c>
       <c r="R7">
-        <v>98.84174963736001</v>
+        <v>241.58403320544</v>
       </c>
       <c r="S7">
-        <v>0.1998925116537907</v>
+        <v>0.4135201861062658</v>
       </c>
       <c r="T7">
-        <v>0.2002468831080794</v>
+        <v>0.4150217783688895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.5785615</v>
+        <v>2.6307215</v>
       </c>
       <c r="H8">
-        <v>5.157123</v>
+        <v>5.261443</v>
       </c>
       <c r="I8">
-        <v>0.005309018279662159</v>
+        <v>0.01085431421352248</v>
       </c>
       <c r="J8">
-        <v>0.003545620107095208</v>
+        <v>0.007262485910362437</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N8">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O8">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P8">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q8">
-        <v>0.0551803565795</v>
+        <v>0.05957093455316666</v>
       </c>
       <c r="R8">
-        <v>0.331082139477</v>
+        <v>0.357425607319</v>
       </c>
       <c r="S8">
-        <v>0.001004345441069873</v>
+        <v>0.0009177098856446884</v>
       </c>
       <c r="T8">
-        <v>0.0006707506365100241</v>
+        <v>0.0006140282088012239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.5785615</v>
+        <v>2.6307215</v>
       </c>
       <c r="H9">
-        <v>5.157123</v>
+        <v>5.261443</v>
       </c>
       <c r="I9">
-        <v>0.005309018279662159</v>
+        <v>0.01085431421352248</v>
       </c>
       <c r="J9">
-        <v>0.003545620107095208</v>
+        <v>0.007262485910362437</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N9">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O9">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P9">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q9">
-        <v>0.23650566078</v>
+        <v>0.645010820256</v>
       </c>
       <c r="R9">
-        <v>1.41903396468</v>
+        <v>3.870064921536</v>
       </c>
       <c r="S9">
-        <v>0.004304672838592287</v>
+        <v>0.009936604327877789</v>
       </c>
       <c r="T9">
-        <v>0.002874869470585184</v>
+        <v>0.006648457701561214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>347.095591</v>
+        <v>113.0911763333333</v>
       </c>
       <c r="H10">
-        <v>1041.286773</v>
+        <v>339.273529</v>
       </c>
       <c r="I10">
-        <v>0.7146375362422577</v>
+        <v>0.4666123581302228</v>
       </c>
       <c r="J10">
-        <v>0.7159044528511503</v>
+        <v>0.4683067409684837</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02139966666666667</v>
+        <v>0.02264433333333333</v>
       </c>
       <c r="N10">
-        <v>0.06419900000000001</v>
+        <v>0.06793299999999999</v>
       </c>
       <c r="O10">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489194</v>
       </c>
       <c r="P10">
-        <v>0.1891772429786745</v>
+        <v>0.08454793804489193</v>
       </c>
       <c r="Q10">
-        <v>7.427729948869668</v>
+        <v>2.560874293950778</v>
       </c>
       <c r="R10">
-        <v>66.84956953982702</v>
+        <v>23.047868645557</v>
       </c>
       <c r="S10">
-        <v>0.1351931588353829</v>
+        <v>0.03945111274617501</v>
       </c>
       <c r="T10">
-        <v>0.1354328306265371</v>
+        <v>0.03959436932140861</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>347.095591</v>
+        <v>113.0911763333333</v>
       </c>
       <c r="H11">
-        <v>1041.286773</v>
+        <v>339.273529</v>
       </c>
       <c r="I11">
-        <v>0.7146375362422577</v>
+        <v>0.4666123581302228</v>
       </c>
       <c r="J11">
-        <v>0.7159044528511503</v>
+        <v>0.4683067409684837</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09172000000000001</v>
+        <v>0.245184</v>
       </c>
       <c r="N11">
-        <v>0.27516</v>
+        <v>0.735552</v>
       </c>
       <c r="O11">
-        <v>0.8108227570213256</v>
+        <v>0.915452061955108</v>
       </c>
       <c r="P11">
-        <v>0.8108227570213254</v>
+        <v>0.9154520619551081</v>
       </c>
       <c r="Q11">
-        <v>31.83560760652</v>
+        <v>27.728146978112</v>
       </c>
       <c r="R11">
-        <v>286.52046845868</v>
+        <v>249.553322803008</v>
       </c>
       <c r="S11">
-        <v>0.5794443774068748</v>
+        <v>0.4271612453840478</v>
       </c>
       <c r="T11">
-        <v>0.5804716222246132</v>
+        <v>0.4287123716470751</v>
       </c>
     </row>
   </sheetData>
